--- a/outputs/full_text_codebook_filled.xlsx
+++ b/outputs/full_text_codebook_filled.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deviv\R-working-folder\Krill_projections_systematic_map\derived_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deviv\R-working-folder\Krill_projections_systematic_map\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="316">
   <si>
     <t>STUDY_ID</t>
   </si>
@@ -42,36 +42,15 @@
     <t>study_type</t>
   </si>
   <si>
-    <t>population_type</t>
-  </si>
-  <si>
     <t>krill_life_stage</t>
   </si>
   <si>
-    <t>env_drivers</t>
-  </si>
-  <si>
     <t>outcome_description</t>
   </si>
   <si>
     <t>outcome_metrics</t>
   </si>
   <si>
-    <t>outcome_spatial_scale</t>
-  </si>
-  <si>
-    <t>outcome_temporal_scale</t>
-  </si>
-  <si>
-    <t>empirical_model_used</t>
-  </si>
-  <si>
-    <t>empirical_temp_coverage</t>
-  </si>
-  <si>
-    <t>empirical_spat_coverage</t>
-  </si>
-  <si>
     <t>Climate drivers of Southern Ocean phytoplankton community composition and potential impacts on higher trophic levels</t>
   </si>
   <si>
@@ -367,6 +346,627 @@
   </si>
   <si>
     <t>10.3354/meps07350</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>outcome_temporal_coverage</t>
+  </si>
+  <si>
+    <t>Text of reference</t>
+  </si>
+  <si>
+    <t>Select One: Yes, No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>In scenarios with unchanged predator diets, an 80% reduction in krill biomass resulted in a 73% reduction in vertebrate biomass. However, when predators with diverse diets were able to switch to feeding on alternative zooplankton prey, total vertebrate biomass was maintained at current levels. Scenarios in which 80% of krill biomass was replaced with copepod biomass required 28% more primary production because the estimated consumption rate of copepods is higher than that of krill</t>
+  </si>
+  <si>
+    <t>% change in predator biomass</t>
+  </si>
+  <si>
+    <t>South Georgia shelf</t>
+  </si>
+  <si>
+    <t>unspecified</t>
+  </si>
+  <si>
+    <t>Unresolved</t>
+  </si>
+  <si>
+    <t>biophysical_model_used</t>
+  </si>
+  <si>
+    <t>foodweb model</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>South Georgia shelf, the shoreline of South Georgia and the 1000 m bathymetric contour, encompassing an area of 45,530 km2</t>
+  </si>
+  <si>
+    <t>population_description</t>
+  </si>
+  <si>
+    <t>Food web</t>
+  </si>
+  <si>
+    <t>Reason_full_text_exclusion</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Future projections not explicitly modelled</t>
+  </si>
+  <si>
+    <t>krill</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>near-future ocean acidification (100-2000 μatm pCO2)</t>
+  </si>
+  <si>
+    <t>experimental ex-situ</t>
+  </si>
+  <si>
+    <t>Select One: simulation, experimental ex-situ, experimental in-situ</t>
+  </si>
+  <si>
+    <t>adult krill survival, body length, triacylglycerol content, sexual maturation, ovarian development, respiration rate, haemolymph pH</t>
+  </si>
+  <si>
+    <t>Despite differences in seawater pCO2 incubation conditions, adult krill are able to actively maintain the acid-base balance of their body fluids in near-future pCO2, which enhances their resilience to ocean acidification</t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t>Examined realized impacts of climate change, not future</t>
+  </si>
+  <si>
+    <t>post-larval</t>
+  </si>
+  <si>
+    <t>We find that 85% of the study area experienced only a moderate change in relative gross growth potential (± 20%) by 2100. However, a temporal shift in seasonal timings of habitat quality may cause disjunctions between krill’s biological timings and the future environment. Regions likely to experience habitat quality decline or retreat are concen_x0002_trated near the northern limits of krill distribution and in the Amundsen–Bellingshausen seas region during autumn, meaning habitat will likely shift to higher latitudes in these areas</t>
+  </si>
+  <si>
+    <t>growth potential, gross growth potential</t>
+  </si>
+  <si>
+    <t>Circumpolar</t>
+  </si>
+  <si>
+    <t>Jan-Feb 2002, Jan-Feb 2003</t>
+  </si>
+  <si>
+    <t>South Georgia and Scotia Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Increases in zooplankton species like E. superba in the ACC  reflective of increases in diatom abundance there.  The SIZ shows regionally variable changes in mesozooplankton biomass, increasing around the Antarctic Peninsula and Ross Sea regions, but decreasing in all other areas in the SIZ.</t>
+  </si>
+  <si>
+    <t>mesozooplankton biomass</t>
+  </si>
+  <si>
+    <t>mesozooplankton (incl. krill)</t>
+  </si>
+  <si>
+    <t>estimated mesozooplankton biomass by multiplying the total zooplankton biomass and production terms simulated directly by the simulated diatom fraction of phytoplankton biomass</t>
+  </si>
+  <si>
+    <t>feeding, growth, acid−base physiology, metabolic rate, and survival</t>
+  </si>
+  <si>
+    <t>(1) shorter-term effects were primarily pH-dependent; (2) krill com_x0002_pensated for lower pH relatively quickly; and (3) longer-term effects on krill growth and survival were strongly driven by temperature with little to no pH effect</t>
+  </si>
+  <si>
+    <t>krill collected during austral summers 2013/14 and 2014/15</t>
+  </si>
+  <si>
+    <t>mean RCP8.5 projections for temperature (3C) and pH (7.7)</t>
+  </si>
+  <si>
+    <t>krill collected near Palmer Station</t>
+  </si>
+  <si>
+    <t>The forced trend in krill growth is characterized by a poleward contraction of optimal conditions and an overall reduction in Southern Ocean krill habitat. However, the amplitude of natural climate variability is relatively large, such that the forced trend cannot be formally distinguished from natural variability at local scales over much of the Southern Ocean by 2100</t>
+  </si>
+  <si>
+    <t>growth potential, time of emergence</t>
+  </si>
+  <si>
+    <t>krill, krill predators</t>
+  </si>
+  <si>
+    <t>krill biomass, biomass of 7 krill predators: Adélie penguin (Py goscelis adeliae), chinstrap penguin (P. antarcticum), gentoo penguin (P. papua), Antarctic fur seal (Arctocephalus gazella), mackerel icefish (Champsocephalus gunnari), marbled rockcod (Notothenia rossii), and humped rockcod (Gobionotothen gibberifrons)</t>
+  </si>
+  <si>
+    <t>bathymetry, average summer primary production, monthly sea-ice concentration, fishing effort, foraging area</t>
+  </si>
+  <si>
+    <t>Ecospace model extended from Dahood et al. (2019)</t>
+  </si>
+  <si>
+    <t>1996-2095</t>
+  </si>
+  <si>
+    <t>FAO Statistical Subarea 48.1</t>
+  </si>
+  <si>
+    <t>FAO Statistical Subarea 48.1 (including the west Antarctic Peninsula)</t>
+  </si>
+  <si>
+    <t>Select Many: primary producers, krill, krill predators, other ecosystem impacts</t>
+  </si>
+  <si>
+    <t>populations</t>
+  </si>
+  <si>
+    <t>all_env_drivers</t>
+  </si>
+  <si>
+    <t>other_drivers</t>
+  </si>
+  <si>
+    <t>climate_change_scenario</t>
+  </si>
+  <si>
+    <t>empirical_krill_data_temp_coverage</t>
+  </si>
+  <si>
+    <t>empirical_krill_data_spat_coverage</t>
+  </si>
+  <si>
+    <t>1996–2001</t>
+  </si>
+  <si>
+    <t>biomass - 2000, for other parameters see Table 1 in ref</t>
+  </si>
+  <si>
+    <t>predator diet switching</t>
+  </si>
+  <si>
+    <t>study_spatial_extent</t>
+  </si>
+  <si>
+    <t>Warming climate represented by reductions in krill biomass by 80%, copepod biomass held constant/increases by 26 t km-2</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>projected changes in seasonal climatologies (2070-2099) relative to historical baseline (1960-1989) for temperature and chlorophyll-a under RCP 4.5 and RCP 8.5 scenarios</t>
+  </si>
+  <si>
+    <t>krill growth model (Atkinson et al., 2006)</t>
+  </si>
+  <si>
+    <t>temperature, chlorophyll-a</t>
+  </si>
+  <si>
+    <t>temperature, iron and photosynthetically active radiation; used to calculate phytoplankton community composition</t>
+  </si>
+  <si>
+    <t>environmental_model</t>
+  </si>
+  <si>
+    <t>Community Earth System Model (version 1) Large Ensemble</t>
+  </si>
+  <si>
+    <t>CMIP5 ensemble of earth system models</t>
+  </si>
+  <si>
+    <t>projected changes (2090-2099) in phytoplankton community composition relative to historical (1920-1929) under RCP 8.5 scenario</t>
+  </si>
+  <si>
+    <t>temperature, pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature, chlorophyll-a </t>
+  </si>
+  <si>
+    <t>historical and RCP8.5 scenarios (1920-2100)</t>
+  </si>
+  <si>
+    <t>fishing pressure, marine protected area placement</t>
+  </si>
+  <si>
+    <t>status quo sea ice vs decreasing sea ice from 1996-2095</t>
+  </si>
+  <si>
+    <t>1920-2100</t>
+  </si>
+  <si>
+    <t>1920-1929; 2090-2099</t>
+  </si>
+  <si>
+    <t>1960-1989; 2070-2099</t>
+  </si>
+  <si>
+    <t>egg, larval, larval winter, post-larval, juvenile, sub-adult, adult, spawning, unspecified</t>
+  </si>
+  <si>
+    <t>sub-adult</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>Temperature regimes (0.5 ◦C, 1.5 ◦C, 2.5 ◦C, 3.5 ◦C, 5 ◦C, 7 ◦C) represented control (0.5 ◦C), to RCP 8.5 (3.5 ◦C), and above.</t>
+  </si>
+  <si>
+    <t>O2 consumption, body length, length of the digestive gland</t>
+  </si>
+  <si>
+    <t>After 8 months, krill oxygen consumption remained unchanged up to temperatures of 3.5 ◦C and was significantly higher at temperatures &gt; 3.5 ◦C. Krill acclimated to temperatures ≥ 3.5 ◦C were significantly smaller at the end of the experiment. Limited food intake and/or conversion may have contributed to this effect, especially pronounced after the onset of the reproductive period. In addition, the seasonal growth pattern in males differed from that of females. Together, our findings indicate that warming Southern Ocean waters are likely to increase metabolic rate in krill, possibly altering the amount of energy available for other important life-cycle processes</t>
+  </si>
+  <si>
+    <t>Krill collected Dec 2016</t>
+  </si>
+  <si>
+    <t>Krill collected in East Antarctica (64◦37’57.1"S 111◦00’13.0"E)</t>
+  </si>
+  <si>
+    <t>Theoretical work, no simulation or experimental results presented</t>
+  </si>
+  <si>
+    <t>baleen whales (blue, fin humpback, minke, southern right)</t>
+  </si>
+  <si>
+    <t>climate–biological coupled “Model of Intermediate Complexity for Ecosystem Assessments” (MICE)</t>
+  </si>
+  <si>
+    <t>Models predict negative future impacts of climate change on krill and all whale species, although the magnitude of impacts on whales differs among populations. Despite initial recovery from historical whaling, models predict concerning declines under climate change, even local extinc_x0002_tions by 2100, for Pacific populations of blue, fin and southern right whales, and Atlantic/Indian fin and humpback whales. Plasticity in range size and migration was predicted to improve recovery for ice‐associated blue and minke whales</t>
+  </si>
+  <si>
+    <t>temperature, chlorophyll-a, sea-ice extent</t>
+  </si>
+  <si>
+    <t>alternate whale migratory patterns, species dynamics</t>
+  </si>
+  <si>
+    <t>projected changes (2000-2100) in phytoplankton biomass, SST, sea-ice mass and sea-ice concentration under RCP 8.5 compared to historical (1900-2000)</t>
+  </si>
+  <si>
+    <t>Australia Community Climate and Earths System Simulator (ACCESS (Law et al., 2017; Ziehn et al., 2017))</t>
+  </si>
+  <si>
+    <t>temperature, chlorophyll-a, sea-ice thickness</t>
+  </si>
+  <si>
+    <t>projected changes (2000-2100) in all environmnetal drivers under RCP 8.5 compared to historical (1900-2000)</t>
+  </si>
+  <si>
+    <t>krill biomass, whale population estimates</t>
+  </si>
+  <si>
+    <t>1900-2100</t>
+  </si>
+  <si>
+    <t>“Model of Intermediate Complexity for Ecosystem Assessments” (MICE)</t>
+  </si>
+  <si>
+    <t>Scotia Sea around the South Shetland Islands (60–64°S, 63–53°W)</t>
+  </si>
+  <si>
+    <t>1992 to 2011</t>
+  </si>
+  <si>
+    <t>Select Many: primary producers, krill, krill predators, krill competitor, other ecosystem impacts</t>
+  </si>
+  <si>
+    <t>Invalid comparator -- climate change evaluated by qualitative ranking of environmental driver vulnerability</t>
+  </si>
+  <si>
+    <t>krill competitor</t>
+  </si>
+  <si>
+    <t>salps (s. thompsoni)</t>
+  </si>
+  <si>
+    <t>southwest Atlantic</t>
+  </si>
+  <si>
+    <t>Inferences made of future salp distribution suggest that the range of S. thompsoni will move southwards, enlarging their habitat area by nearly 500,000 km2</t>
+  </si>
+  <si>
+    <t>boundary of temperature optimum for salp distribution range</t>
+  </si>
+  <si>
+    <t>1970-2050</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>An increase in SST of 1 C, representing 50 years of warming</t>
+  </si>
+  <si>
+    <t>krill, whales, penguins, seals and fish</t>
+  </si>
+  <si>
+    <t>Scotia Sea</t>
+  </si>
+  <si>
+    <t>fishing effort</t>
+  </si>
+  <si>
+    <t>The projected effects of ocean warming on krill biomass were strongest in the northern Scotia Sea, with a _x0015_40% decline in the mass of individual krill. Projections also suggest a 25% chance that krill biomass will fall below an established depletion threshold (75% of its unimpacted level), with consequent risks for some predator populations, especially penguins.</t>
+  </si>
+  <si>
+    <t>krill biomass (gross growth potential), predator abundance</t>
+  </si>
+  <si>
+    <t>Projected SST (2007-2100) under RCP 8.5 and 2.6 scenarios</t>
+  </si>
+  <si>
+    <t>SST, chlorophyll-a</t>
+  </si>
+  <si>
+    <t>Coupled Model Intercomparison Project Phase 5 (CMIP5) ensemble</t>
+  </si>
+  <si>
+    <t>2007-2100</t>
+  </si>
+  <si>
+    <t>CO2 concentration</t>
+  </si>
+  <si>
+    <t>Observed shifts in metabolism are consistent with increased physiological costs associated with regulating internal acid-base equilibria</t>
+  </si>
+  <si>
+    <t>Ambient (~390 ppm) and elevated (~672 ppm) atmospheric CO2, representing the mean predicted atmospheric CO2 concentration by 2100</t>
+  </si>
+  <si>
+    <t>Krill metabolic enzyme activities and chemical composition</t>
+  </si>
+  <si>
+    <t>west Antarctic Peninsula</t>
+  </si>
+  <si>
+    <t>Climate change not explicitly involved in method</t>
+  </si>
+  <si>
+    <t>egg, larval</t>
+  </si>
+  <si>
+    <t>Increases in wind speed by 20% and increase in ACC transport by 6% to represent future environment</t>
+  </si>
+  <si>
+    <t>hatching depth, hatching time, time to complete descent-ascent cycle, carbon stores, vertical and horizontal trajectories, particle distribution</t>
+  </si>
+  <si>
+    <t>SST, density, circulation, bathymetry</t>
+  </si>
+  <si>
+    <t>15-1270 days</t>
+  </si>
+  <si>
+    <t>embryo descent-ascent (Hoffmann et al., 1992; Hofmann and Husrevoglu, 2003)</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>primary producers</t>
+  </si>
+  <si>
+    <t>Strong species-specific differences in macromolecular partitioning were observed under OA. Large taxa showed preferential energy allocation towards proteins, while smaller taxa increased both lipid and protein stores at high fCO2. We may expect a shift away from lipid-rich large diatoms towards a community dominated by smaller taxa, but with higher lipid and protein stores than their present-day contemporaries</t>
+  </si>
+  <si>
+    <t>A gradient of pH ranging from 8.17 to 7.57</t>
+  </si>
+  <si>
+    <t>macronutrient concentrations, diatom community structure, cell volume, photophysiological status, macromolecular composition</t>
+  </si>
+  <si>
+    <t>projected changes in SST (1990–2100) under RCPs 8.5, 4.5 and 2.6, and assuming changes in chlorophyll-a of +50%, 0%, and -50% compared to December 1997 to March 2010.</t>
+  </si>
+  <si>
+    <t>CMIP5 ensemble of earth system models, SeaWIFS chlorophyll-a data</t>
+  </si>
+  <si>
+    <t>gross growth potential, growth area</t>
+  </si>
+  <si>
+    <t>The results divide the quadrant into two zones: a band around the Antarctic Circumpolar Current in which habitat quality is particularly vulnerable to warming, and a southern area which is relatively insensitive. Our analysis suggests that the direct effects of warming could reduce the area of growth habitat by up to 20%. The reduction in growth habitat within the range of predators, such as Antarctic fur seals, that forage from breeding sites on South Georgia could be up to 55%, and the habitat’s ability to support Antarctic krill biomass production within this range could be reduced by up to 68%. Sensitivity analysis suggests that the effects of a 50% change in summer chlorophyll concentration could be more significant than the direct effects of warming.</t>
+  </si>
+  <si>
+    <t>1990-2100</t>
+  </si>
+  <si>
+    <t>Coupled Model Intercomparison Project in its sixth phase (CMIP6) ensemble</t>
+  </si>
+  <si>
+    <t>Various, most important: minimum surface solar radiation downward (ssrdmin), the mean temperature (tem) and the mean northward velocity (v)</t>
+  </si>
+  <si>
+    <t>In the near future and far future, the suitable area of krill was seen to decline under all shared socioeconomic pathways (SSPs), with the smallest reduction under SSP1-2.6 and the greatest reduction under SSP5-8.5. The suitable area for krill dropped quicker from the near future to the far future than the present to the near future. Krill habitats were expected to shift to the poles.</t>
+  </si>
+  <si>
+    <t>krill habitat distribution</t>
+  </si>
+  <si>
+    <t>Cosmonaut Sea (60◦S-70◦S, 30◦E-65◦E)</t>
+  </si>
+  <si>
+    <t>KRILLBASE and CHINARE krill density data, spanning 1926-2016 and concentrated during the austral summer</t>
+  </si>
+  <si>
+    <t>Projected changes in environmnetal drivers for near future (2029-2050) and far future (2079-2100) under SSP1-2.6, SSP2-4.5, SSP5-8.5 compared to historical (1993-2014)</t>
+  </si>
+  <si>
+    <t>We find that by the year 2100 localized regions along the western Weddell Sea, isolated areas of the Indian Antarctic , and the Amundsen/Bellingshausen Sea will support successful spawning habitats for krill.</t>
+  </si>
+  <si>
+    <t>egg, larval, larval winter</t>
+  </si>
+  <si>
+    <t>temperature, salinity, bathymetry, sea ice advance, chlorophyll-a</t>
+  </si>
+  <si>
+    <t>embryo carbon remaining after the descent-ascent cycle, hatching depth, time to complete development, spawning habitat</t>
+  </si>
+  <si>
+    <t>Projected changes in temperature, salinity and sea-ice at the end of the century under RCP 8.5 compared to present day, and various assumptions of reductions in sea ice cover and chlorophyll-a.</t>
+  </si>
+  <si>
+    <t>present day-end of 21st century</t>
+  </si>
+  <si>
+    <t>embryo descent-ascent (Hoffmann et al., 1992; Hofmann and Husrevoglu, 2003), krill recruitment index (Quetin et al., 2007)</t>
+  </si>
+  <si>
+    <t>crabeater seals</t>
+  </si>
+  <si>
+    <t>foraging habitat for crabeater seals (proxy for krill distribution)</t>
+  </si>
+  <si>
+    <t>Our projections show that future crabeater seal foraging habitat and, by inference, krill distribution will expand towards offshore waters and the southern WAP in response to changes in circulation, water tempera_x0002_ture and sea ice distribution. Antarctic krill biomass is projected to be negatively affected by the environmental changes, which are anticipated to manifest as a decrease in krill densities in coastal waters, with impacts on the land-/ice-based krill predator community, particularly in the northern WAP</t>
+  </si>
+  <si>
+    <t>sea ice concentration, bathymetry, temperature, salinity, current velocity</t>
+  </si>
+  <si>
+    <t>future_environmental_model</t>
+  </si>
+  <si>
+    <t>Increases in wind speed by 20% and increase in ACC transport by 5% to represent future environment</t>
+  </si>
+  <si>
+    <t>non_physical_drivers</t>
+  </si>
+  <si>
+    <t>2001, 2002, 2007</t>
+  </si>
+  <si>
+    <t>two longitudes:  60°E, 40°W</t>
+  </si>
+  <si>
+    <t>Scenario of  1oC increase in SST compared to 1981-2015 mean monthly climatologies</t>
+  </si>
+  <si>
+    <t>length (mm)</t>
+  </si>
+  <si>
+    <t>Under warming, krill would be expected to be smaller in northern regions in the future</t>
+  </si>
+  <si>
+    <t>simulation, experimental ex-situ</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>egg hatch rate, egg hatching success</t>
+  </si>
+  <si>
+    <t>Here we describe the sensitivity of krill egg hatch rates to increased CO2 (380 - 2000 µatm pCO2), and present a circumpolar risk map of krill hatching success under projected pCO2 levels (2100, 2300) under RCP 8.5 and 6.0 scenarios compared to 1994</t>
+  </si>
+  <si>
+    <t>three-dimensional ocean carbon cycle model (Yamanaka and Tajika 1996, Glob. Biogeochem. Cycles)</t>
+  </si>
+  <si>
+    <t>We find that important krill habitats of the Weddell Sea and the Haakon VII Sea to the east are likely to become high-risk areas for krill recruitment within a century. Furthermore, unless CO2 emissions are mitigated, the Southern Ocean krill population could collapse by 2300 with dire consequences for the entire ecosystem.</t>
+  </si>
+  <si>
+    <t>1994-2300</t>
+  </si>
+  <si>
+    <t>The experimental population of krill was collected from the Indian Ocean sector of the Southern Ocean during the 2010/2011 field season</t>
+  </si>
+  <si>
+    <t>age 0 - age 5</t>
+  </si>
+  <si>
+    <t>biomass per recruit, total biomass</t>
+  </si>
+  <si>
+    <t>Antarctic Peninsula and South Georgia</t>
+  </si>
+  <si>
+    <t>Future increases in temperature (0 to 5 C for Antarctic Peninsula and 0 to 2C for South Georgia), and chlorophyll availability from -100 to +100% compared to 1970 to 2004 baseline.</t>
+  </si>
+  <si>
+    <t>The growth model predicted increasing individual size within a cohort (in terms of length and weight) with increasing temperature in the cooler Antarctic Peninsula region and decreasing individual size with increasing temperature in the warmer South Georgia region. Years with many cohorts of small individuals in the population resulted in biomass well below average, whereas years with many cohorts of large indi viduals resulted in biomass well above the average, suggesting that temporal changes in Southern Ocean temperatures may have profound effects on the total biomass in an area that is available. Moreover, the effects of a potentially warming Southern Ocean on krill biomass will likely be more pronounced in the warmer regions occupied by krill.</t>
+  </si>
+  <si>
+    <t>modified krill growth model (Atkinson et al., 2006)</t>
+  </si>
+  <si>
+    <t>primary producers, krill, krill predators</t>
+  </si>
+  <si>
+    <t>Five scenarios of future change for ecosystem services and the conservation of important taxa: (i) a shift in primary producer communities with decreasing large diatoms and increasing small flagellates; (ii) increasing salps; (iii) increase (recovery) of the Great whales; and unregulated and unsustainable fisheries for (iv) krill or (v) toothfish</t>
+  </si>
+  <si>
+    <t>primary producers, salps, whales, fishing</t>
+  </si>
+  <si>
+    <t>Increases in salps might not have negative consequences for ecosystem services and could enhance carbon export potential. Simulated increases in unregulated krill and toothfish fisheries affect predatory wildlife and could also reduce carbon export potential.</t>
+  </si>
+  <si>
+    <t>ecosystem services (carbon export potential, fisheries, wildlife)</t>
+  </si>
+  <si>
+    <t>qualitative network model</t>
+  </si>
+  <si>
+    <t>experimental in-situ</t>
+  </si>
+  <si>
+    <t>brine algae</t>
+  </si>
+  <si>
+    <t>McMurdo Sound</t>
+  </si>
+  <si>
+    <t>growth rate</t>
+  </si>
+  <si>
+    <t>pCO2 ranging from 238 to 6066 uatm and pH ranging from 7.19 to 8.66 to represent ocean acidification</t>
+  </si>
+  <si>
+    <t>Elevated pCO2 positively affected the growth rate of the brine algal community, dominated by the unique ice dinoflagellate, Polarella glacialis. Growth rates were significantly reduced when pH dropped below 7.6. However, when the pH was held constant and the pCO2 increased, growth rates of the brine algae increased by more than 20% and showed no decline at pCO2 values more than five times current ambient levels. We suggest that projected increases in seawater pCO2, associated with OA, will not adversely impact brine algal communities</t>
+  </si>
+  <si>
+    <t>16–26 Nov, 2012</t>
+  </si>
+  <si>
+    <t>larval winter</t>
+  </si>
+  <si>
+    <t>Los Alamos sea ice model (CICE4) [Bailey et al., 2010]</t>
+  </si>
+  <si>
+    <t>sea ice thickness, mean radiation, ridging rate</t>
+  </si>
+  <si>
+    <t>Projections for all environmental drivers under a warm climate scenario (midrange mitigation) approximation for 2100 was compared to baseline (1998-2008)</t>
+  </si>
+  <si>
+    <t>While total areal sea ice extent decreases under a warm climate scenario, there is a consistently larger area of potential larval krill habitat under warm conditions. These findings suggest that decreases in sea ice extent may not necessarily be detrimental for krill populations</t>
+  </si>
+  <si>
+    <t>Jul, Aug, Sep for 1998-2008 and 2100</t>
+  </si>
+  <si>
+    <t>larval habitat in Jul, Aug, Sep</t>
   </si>
 </sst>
 </file>
@@ -390,12 +990,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -410,11 +1016,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,15 +1337,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="7" width="8.90625" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
+    <col min="9" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" customWidth="1"/>
+    <col min="12" max="12" width="24.90625" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" customWidth="1"/>
+    <col min="15" max="15" width="24.08984375" customWidth="1"/>
+    <col min="16" max="16" width="17.54296875" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="24.54296875" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" customWidth="1"/>
+    <col min="20" max="20" width="21.81640625" customWidth="1"/>
+    <col min="21" max="21" width="23.26953125" customWidth="1"/>
+    <col min="22" max="22" width="21.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,601 +1384,1826 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>128</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>119</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="D9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>89</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>69</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>221</v>
+      </c>
+      <c r="R17" t="s">
+        <v>220</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>84</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>116</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U20" s="6">
+        <v>40544</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>77</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>111</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>113</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="D26" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>2022</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>2022</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>2021</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>2021</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>2021</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>2021</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>2021</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10">
-        <v>2021</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11">
-        <v>2021</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>100</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>123</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>91</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>112</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>142</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>55</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12">
-        <v>2020</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>2020</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <v>2020</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <v>2020</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17">
-        <v>2019</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18">
-        <v>2018</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19">
-        <v>2018</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>109</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>98</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D35" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D21">
-        <v>2017</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22">
-        <v>2017</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23">
-        <v>2016</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24">
-        <v>2016</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>109</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25">
-        <v>2014</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26">
-        <v>2013</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>112</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27">
-        <v>2013</v>
-      </c>
-      <c r="E27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="F35" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28">
-        <v>2013</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>116</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29">
-        <v>2012</v>
-      </c>
-      <c r="E29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>119</v>
-      </c>
-      <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30">
-        <v>2012</v>
-      </c>
-      <c r="E30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>123</v>
-      </c>
-      <c r="B31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31">
-        <v>2012</v>
-      </c>
-      <c r="E31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>124</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32">
-        <v>2012</v>
-      </c>
-      <c r="E32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>128</v>
-      </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33">
-        <v>2012</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>142</v>
-      </c>
-      <c r="B34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="H35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D34">
-        <v>2008</v>
-      </c>
-      <c r="E34" t="s">
-        <v>115</v>
+      <c r="I35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Q35">
+    <sortCondition ref="B2:B35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>